--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/tutorial_act9d0_05.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/tutorial_act9d0_05.xlsx
@@ -64,7 +64,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_hoederer")] Once we damage a Sentinel, they’ll go &lt;@tu.kw&gt;Alert&lt;/&gt; their entire team. Sadly, we have no way of assassinating them before they make a sound, and they certainly won’t go down easily.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_hoederer")] Once we damage a Sentinel, they'll go &lt;@tu.kw&gt;Alert&lt;/&gt; their entire team. Sadly, we have no way of assassinating them before they make a sound, and they certainly won't go down easily.
 </t>
   </si>
   <si>
